--- a/config_debug/activity_016_cwk_config.xlsx
+++ b/config_debug/activity_016_cwk_config.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895"/>
   </bookViews>
   <sheets>
-    <sheet name="task_info" sheetId="1" r:id="rId1"/>
-    <sheet name="task_info_cjj" sheetId="3" r:id="rId2"/>
-    <sheet name="help_info" sheetId="2" r:id="rId3"/>
-    <sheet name="help_info_cjj" sheetId="4" r:id="rId4"/>
+    <sheet name="permissions" sheetId="5" r:id="rId1"/>
+    <sheet name="task_info" sheetId="1" r:id="rId2"/>
+    <sheet name="task_info_cjj" sheetId="3" r:id="rId3"/>
+    <sheet name="help_info" sheetId="2" r:id="rId4"/>
+    <sheet name="help_info_cjj" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +208,46 @@
   </si>
   <si>
     <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info_cjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +602,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,7 +1065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1365,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1443,11 +1546,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/activity_016_cwk_config.xlsx
+++ b/config_debug/activity_016_cwk_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="5" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>4.当日未完成的任务次日清零，刷新重置。</t>
   </si>
   <si>
-    <t>5.任务需在购买内30日内完成，时间截止后任务失效。</t>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +245,10 @@
   </si>
   <si>
     <t>help_info_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.任务需在购买30日内完成，时间截止后任务失效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -616,16 +617,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -633,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -716,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -736,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -776,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -816,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -836,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -856,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -896,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -916,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -976,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1036,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1178,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,7 +1190,7 @@
         <v>1000117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -1198,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1298,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1318,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,7 +1330,7 @@
         <v>1000118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>80000000</v>
@@ -1338,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1378,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1398,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1418,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1438,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1474,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1550,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_016_cwk_config.xlsx
+++ b/config_debug/activity_016_cwk_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="permissions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +185,6 @@
   </si>
   <si>
     <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.街机捕鱼累计赢金按50%计算。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,16 +617,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -638,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -671,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,7 +788,7 @@
         <v>21326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>10000000</v>
@@ -812,7 +808,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -1214,7 +1210,7 @@
         <v>21327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>10000000</v>
@@ -1477,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1533,15 +1529,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1585,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1609,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
